--- a/biology/Zoologie/Chironius_multiventris/Chironius_multiventris.xlsx
+++ b/biology/Zoologie/Chironius_multiventris/Chironius_multiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius multiventris  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius multiventris  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette couleuvre peut atteindre une très grande taille, jusqu'à 260cm[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette couleuvre peut atteindre une très grande taille, jusqu'à 260cm. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Bolivie ;
 dans le nord du Brésil ;
 dans le sud-est de la Colombie ;
@@ -581,7 +597,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans leur description, Schmidt et Walker indiquent que le spécimen le plus grand en leur possession (le paratype de cette espèce) mesure 136 cm dont 56 cm pour la queue.
 </t>
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hollis, 2006 : Phylogenetics of the genus Chironius Fitzinger, 1826 (Serpentes, Colubridae) based on morphology. Herpetologica, vol. 62, no 4, p. 435-453.
 Schmidt &amp; Walker, 1943 : Peruvian snakes from the University of Arequipa. Zoological Series of Field Museum of Zoology, vol. 24, no 26, p. 279-296 (texte intégral).</t>
